--- a/PROCEDIMIENTO PARA PROYECCION DE VARIABLES DE NEGOCIO/RECOLECTAR_INFORMACION/FFIE/Instrumento_recoleccion_estado_FFIE_V3.xlsx
+++ b/PROCEDIMIENTO PARA PROYECCION DE VARIABLES DE NEGOCIO/RECOLECTAR_INFORMACION/FFIE/Instrumento_recoleccion_estado_FFIE_V3.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Payc1285\payc\PROYECTO 10. REPLANIFICACIÓN PAYC\RECOLECCIÓN DE INFORMACIÓN\FFIE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\REPOSITORIO_PROYECTOS\GESTION-CALIDAD-ANALITICA\PROCEDIMIENTO PARA PROYECCION DE VARIABLES DE NEGOCIO\RECOLECTAR_INFORMACION\FFIE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6045" tabRatio="842" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6045" tabRatio="951" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="DICCIONARIO_MAESTRA" sheetId="4" r:id="rId1"/>
@@ -18,9 +18,9 @@
     <sheet name="AVANCE REAL F2" sheetId="9" r:id="rId4"/>
     <sheet name="DICCIONARIO_CRONOGRAMAS" sheetId="8" r:id="rId5"/>
     <sheet name="CRONOGRAMAS" sheetId="3" r:id="rId6"/>
-    <sheet name="HITOS_ETAPAS" sheetId="5" r:id="rId7"/>
-    <sheet name="ETAPAS" sheetId="6" r:id="rId8"/>
-    <sheet name="INFORMACIONRESUMEN_HITOS" sheetId="2" r:id="rId9"/>
+    <sheet name="HITOS_ETAPAS" sheetId="5" state="hidden" r:id="rId7"/>
+    <sheet name="ETAPAS" sheetId="6" state="hidden" r:id="rId8"/>
+    <sheet name="INFORMACIONRESUMEN_HITOS" sheetId="2" state="hidden" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'AVANCE REAL F2'!$A$1:$AB$81</definedName>
@@ -2275,13 +2275,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
   <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B47" sqref="B47"/>
+      <selection activeCell="B12" sqref="B12"/>
+      <selection pane="topRight" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3045,13 +3049,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="4" tint="0.79998168889431442"/>
+  </sheetPr>
   <dimension ref="A1:BC82"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
+      <selection activeCell="G14" sqref="G14"/>
+      <selection pane="topRight" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15534,13 +15542,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection activeCell="B47" sqref="B47"/>
+      <selection pane="topRight" activeCell="B47" sqref="B47"/>
+      <selection pane="bottomLeft" activeCell="B47" sqref="B47"/>
+      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15916,13 +15928,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="4" tint="0.79998168889431442"/>
+  </sheetPr>
   <dimension ref="A1:AG81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection activeCell="G14" sqref="G14"/>
+      <selection pane="topRight" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21986,10 +22002,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
   <dimension ref="A1:C57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C40" sqref="C40:C44"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22695,13 +22714,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="4" tint="0.79998168889431442"/>
+  </sheetPr>
   <dimension ref="A1:BD56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
+      <selection activeCell="G14" sqref="G14"/>
+      <selection pane="topRight" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31132,7 +31155,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C8" sqref="C8:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31194,8 +31217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH21"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AH1" sqref="AH1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
